--- a/fab/loRaWan1262_jlc.xlsx
+++ b/fab/loRaWan1262_jlc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svcgu\OneDrive\Documents\KICAD\loRaWan1262_jlc\fab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76C82F56-266E-47D8-93A3-2D893F1F1EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{76C82F56-266E-47D8-93A3-2D893F1F1EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C41C6DE0-75BE-45FC-84C9-0914A081C986}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="15390" windowHeight="9533"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loRaWan1262_jlc" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="194">
   <si>
     <t>Comment</t>
   </si>
@@ -371,12 +371,6 @@
   </si>
   <si>
     <t>R16,R17</t>
-  </si>
-  <si>
-    <t>311-1.50KLRCT-ND</t>
-  </si>
-  <si>
-    <t>C25867</t>
   </si>
   <si>
     <t>4.7k</t>
@@ -613,7 +607,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1447,11 +1441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1981,27 +1975,27 @@
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -2009,67 +2003,67 @@
         <v>0.03</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
         <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" t="s">
         <v>126</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>127</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>128</v>
-      </c>
-      <c r="D34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
@@ -2077,157 +2071,157 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" t="s">
         <v>139</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>140</v>
-      </c>
-      <c r="D37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" t="s">
         <v>140</v>
-      </c>
-      <c r="D38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E38" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" t="s">
         <v>140</v>
-      </c>
-      <c r="D39" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" t="s">
         <v>147</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>148</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>149</v>
-      </c>
-      <c r="D40" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" t="s">
         <v>152</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>153</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>154</v>
-      </c>
-      <c r="D41" t="s">
-        <v>155</v>
-      </c>
-      <c r="E41" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" t="s">
         <v>157</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" t="s">
         <v>158</v>
-      </c>
-      <c r="C42" t="s">
-        <v>159</v>
-      </c>
-      <c r="D42" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
         <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" t="s">
         <v>165</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
         <v>166</v>
-      </c>
-      <c r="C44" t="s">
-        <v>167</v>
-      </c>
-      <c r="D44" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" t="s">
         <v>169</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>170</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>171</v>
-      </c>
-      <c r="D45" t="s">
-        <v>172</v>
-      </c>
-      <c r="E45" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" t="s">
         <v>174</v>
-      </c>
-      <c r="B46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C46" t="s">
-        <v>176</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
@@ -2238,33 +2232,33 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" t="s">
         <v>177</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>178</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>179</v>
-      </c>
-      <c r="D47" t="s">
-        <v>180</v>
-      </c>
-      <c r="E47" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" t="s">
         <v>182</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>183</v>
-      </c>
-      <c r="C48" t="s">
-        <v>184</v>
-      </c>
-      <c r="D48" t="s">
-        <v>185</v>
       </c>
       <c r="E48" t="s">
         <v>15</v>
@@ -2272,36 +2266,36 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" t="s">
         <v>186</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>187</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>188</v>
-      </c>
-      <c r="D49" t="s">
-        <v>189</v>
-      </c>
-      <c r="E49" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" t="s">
         <v>191</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>192</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>193</v>
-      </c>
-      <c r="D50" t="s">
-        <v>194</v>
-      </c>
-      <c r="E50" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/fab/loRaWan1262_jlc.xlsx
+++ b/fab/loRaWan1262_jlc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svcgu\OneDrive\Documents\KICAD\loRaWan1262_jlc\fab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{76C82F56-266E-47D8-93A3-2D893F1F1EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C41C6DE0-75BE-45FC-84C9-0914A081C986}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{76C82F56-266E-47D8-93A3-2D893F1F1EE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{24B9F907-BDD6-4C82-80DA-E4FE1C90BDAB}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="197">
   <si>
     <t>Comment</t>
   </si>
@@ -602,6 +602,15 @@
   </si>
   <si>
     <t>C32346</t>
+  </si>
+  <si>
+    <t>FM24CL04B</t>
+  </si>
+  <si>
+    <t>C66016</t>
+  </si>
+  <si>
+    <t>428-3741-1-ND</t>
   </si>
 </sst>
 </file>
@@ -1442,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2249,52 +2258,69 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D48" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B49" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C49" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D49" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E49" t="s">
-        <v>188</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50" t="s">
+        <v>187</v>
+      </c>
+      <c r="E50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>189</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>190</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>191</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>192</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>193</v>
       </c>
     </row>
